--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoPC\Documents\GitHub\tflite_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9750FDB2-5E36-4343-8FF0-E2A0068BB6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41581AD-27BC-4444-8690-906E63176A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>Imagem</t>
   </si>
@@ -116,6 +116,30 @@
   </si>
   <si>
     <t>mobilenetV2_weeds</t>
+  </si>
+  <si>
+    <t>ONNX from TF_savemodel</t>
+  </si>
+  <si>
+    <t>MobilenetV3</t>
+  </si>
+  <si>
+    <t>ONNX from Tflite</t>
+  </si>
+  <si>
+    <t>Yolov5n</t>
+  </si>
+  <si>
+    <t>Tflite</t>
+  </si>
+  <si>
+    <t>conversão manual eh 0,5ms mais rapida mas muda resultado das detecs</t>
+  </si>
+  <si>
+    <t>Efficientnet (adam)</t>
+  </si>
+  <si>
+    <t>Efficientnet (RMSProp)</t>
   </si>
 </sst>
 </file>
@@ -433,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A11" sqref="A11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +479,7 @@
     <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -557,7 +581,7 @@
         <v>45.381999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -609,7 +633,7 @@
         <v>66.825999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -661,7 +685,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -713,7 +737,7 @@
         <v>44.632000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -765,7 +789,7 @@
         <v>83.731999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -817,7 +841,7 @@
         <v>150.39000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -866,7 +890,7 @@
         <v>124.81799999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -915,67 +939,256 @@
         <v>129.83799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>224</v>
+      </c>
+      <c r="C10">
+        <v>224</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50176</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>77.349999999999994</v>
+      </c>
+      <c r="L10">
+        <v>76.81</v>
+      </c>
+      <c r="M10">
+        <v>76.7</v>
+      </c>
+      <c r="N10">
+        <v>78.13</v>
+      </c>
+      <c r="O10">
+        <v>78.260000000000005</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>77.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>224</v>
+      </c>
+      <c r="C11">
+        <v>224</v>
+      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>35.99</v>
+      </c>
+      <c r="L11">
+        <v>35.89</v>
+      </c>
+      <c r="M11">
+        <v>35.86</v>
+      </c>
+      <c r="N11">
+        <v>35.96</v>
+      </c>
+      <c r="O11">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>35.908000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>224</v>
+      </c>
+      <c r="C12">
+        <v>224</v>
+      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50176</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>105.69</v>
+      </c>
+      <c r="L12">
+        <v>105.46</v>
+      </c>
+      <c r="M12">
+        <v>105.77</v>
+      </c>
+      <c r="N12">
+        <v>106.11</v>
+      </c>
+      <c r="O12">
+        <v>105.94</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>105.79400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>224</v>
+      </c>
+      <c r="C13">
+        <v>224</v>
+      </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50176</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>422.08</v>
+      </c>
+      <c r="L13">
+        <v>421.82</v>
+      </c>
+      <c r="M13">
+        <v>422.75</v>
+      </c>
+      <c r="N13">
+        <v>404.22</v>
+      </c>
+      <c r="O13">
+        <v>407.03</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>415.58000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>224</v>
+      </c>
+      <c r="C14">
+        <v>224</v>
+      </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50176</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>73.19</v>
+      </c>
+      <c r="L14">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="M14">
+        <v>73.2</v>
+      </c>
+      <c r="N14">
+        <v>72.91</v>
+      </c>
+      <c r="O14">
+        <v>73.11</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>73.118000000000009</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>224</v>
+      </c>
+      <c r="C15">
+        <v>224</v>
+      </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50176</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>321.48</v>
+      </c>
+      <c r="L15">
+        <v>323.01</v>
+      </c>
+      <c r="M15">
+        <v>321.66000000000003</v>
+      </c>
+      <c r="N15">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="O15">
+        <v>322.88</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>322.47399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoPC\Documents\GitHub\tflite_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41581AD-27BC-4444-8690-906E63176A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533E86C0-6385-4273-98BF-3DBBB849B261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>Imagem</t>
   </si>
@@ -121,9 +121,6 @@
     <t>ONNX from TF_savemodel</t>
   </si>
   <si>
-    <t>MobilenetV3</t>
-  </si>
-  <si>
     <t>ONNX from Tflite</t>
   </si>
   <si>
@@ -140,6 +137,39 @@
   </si>
   <si>
     <t>Efficientnet (RMSProp)</t>
+  </si>
+  <si>
+    <t>MobilenetV3 small alpha 1.0</t>
+  </si>
+  <si>
+    <t>MobilenetV3 small alpha 0.75</t>
+  </si>
+  <si>
+    <t>Tflite int8</t>
+  </si>
+  <si>
+    <t>Mobilenetv2</t>
+  </si>
+  <si>
+    <t>Raspbian Bullseye x64</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 4GB (overclock 1800/600)</t>
+  </si>
+  <si>
+    <t>Tflite uint8</t>
+  </si>
+  <si>
+    <t>Mobilenetv2 tfhub</t>
+  </si>
+  <si>
+    <t>MobilenetV2 alpha 0.5</t>
+  </si>
+  <si>
+    <t>MobilenetV2 alpha 0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effnet0 </t>
   </si>
 </sst>
 </file>
@@ -457,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:P11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +502,7 @@
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="6" bestFit="1" customWidth="1"/>
@@ -629,7 +659,7 @@
         <v>66.44</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P22" si="1">AVERAGE(K3:O3)</f>
+        <f t="shared" ref="P3:P25" si="1">AVERAGE(K3:O3)</f>
         <v>66.825999999999993</v>
       </c>
     </row>
@@ -957,7 +987,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -1000,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
@@ -1040,10 +1070,10 @@
         <v>50176</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12">
         <v>105.69</v>
@@ -1080,10 +1110,10 @@
         <v>50176</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13">
         <v>422.08</v>
@@ -1120,10 +1150,10 @@
         <v>50176</v>
       </c>
       <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
         <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
       </c>
       <c r="K14">
         <v>73.19</v>
@@ -1145,7 +1175,7 @@
         <v>73.118000000000009</v>
       </c>
       <c r="Q14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1163,10 +1193,10 @@
         <v>50176</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
         <v>321.48</v>
@@ -1193,9 +1223,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="L16">
+        <v>32.42</v>
+      </c>
+      <c r="M16">
+        <v>32.35</v>
+      </c>
+      <c r="N16">
+        <v>32.29</v>
+      </c>
+      <c r="O16">
+        <v>32.4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>32.338000000000001</v>
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
@@ -1203,9 +1254,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>131.72999999999999</v>
+      </c>
+      <c r="L17">
+        <v>129.91999999999999</v>
+      </c>
+      <c r="M17">
+        <v>130.16999999999999</v>
+      </c>
+      <c r="N17">
+        <v>130.49</v>
+      </c>
+      <c r="O17">
+        <v>130.13999999999999</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>130.48999999999998</v>
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
@@ -1213,9 +1282,36 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>79.16</v>
+      </c>
+      <c r="L18">
+        <v>78.72</v>
+      </c>
+      <c r="M18">
+        <v>79.010000000000005</v>
+      </c>
+      <c r="N18">
+        <v>79.09</v>
+      </c>
+      <c r="O18">
+        <v>81.36</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>79.468000000000004</v>
       </c>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
@@ -1223,9 +1319,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>24.23</v>
+      </c>
+      <c r="L19">
+        <v>24.16</v>
+      </c>
+      <c r="M19">
+        <v>24.23</v>
+      </c>
+      <c r="N19">
+        <v>38.6</v>
+      </c>
+      <c r="O19">
+        <v>25.54</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>27.351999999999997</v>
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
@@ -1233,9 +1350,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>21.17</v>
+      </c>
+      <c r="L20">
+        <v>21.18</v>
+      </c>
+      <c r="M20">
+        <v>21.2</v>
+      </c>
+      <c r="N20">
+        <v>21.1</v>
+      </c>
+      <c r="O20">
+        <v>21.04</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>21.137999999999998</v>
       </c>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
@@ -1243,9 +1378,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>76.91</v>
+      </c>
+      <c r="L21">
+        <v>76.650000000000006</v>
+      </c>
+      <c r="M21">
+        <v>76.94</v>
+      </c>
+      <c r="N21">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="O21">
+        <v>77.13</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>76.955999999999989</v>
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
@@ -1253,9 +1409,102 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>38.6</v>
+      </c>
+      <c r="L22">
+        <v>39.26</v>
+      </c>
+      <c r="M22">
+        <v>39.74</v>
+      </c>
+      <c r="N22">
+        <v>37.99</v>
+      </c>
+      <c r="O22">
+        <v>49.74</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>41.066000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>51.86</v>
+      </c>
+      <c r="L23">
+        <v>51.76</v>
+      </c>
+      <c r="M23">
+        <v>51.69</v>
+      </c>
+      <c r="N23">
+        <v>51.79</v>
+      </c>
+      <c r="O23">
+        <v>52.11</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>51.841999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>66.41</v>
+      </c>
+      <c r="L24">
+        <v>66.06</v>
+      </c>
+      <c r="M24">
+        <v>66.346999999999994</v>
+      </c>
+      <c r="N24">
+        <v>66.22</v>
+      </c>
+      <c r="O24">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>66.227400000000017</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>96.97</v>
+      </c>
+      <c r="L25">
+        <v>94.69</v>
+      </c>
+      <c r="M25">
+        <v>94.6</v>
+      </c>
+      <c r="N25">
+        <v>94.48</v>
+      </c>
+      <c r="O25">
+        <v>98.2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>95.787999999999997</v>
       </c>
     </row>
   </sheetData>
